--- a/data/hotels_by_city/Houston/Houston_shard_16.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_16.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="246">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d1636050-Reviews-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
   </si>
   <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Americas-Best-Value-Inn-Medical-Center-Downtown.h4100218.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,616 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r577663371-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1636050</t>
+  </si>
+  <si>
+    <t>577663371</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great price for one night. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel was ok for one night. Priced very reasonable. Nothing really stood out that was too good or too bad. I always carry my own bedding and sheets and towels. Glad I did this time. Whites didn’t look too white. </t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r575159463-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>575159463</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>Houston's Best Value</t>
+  </si>
+  <si>
+    <t>I visited Houston for the first time for an event being held at the George Brown Convention Center. All the hotels in the immediate area were sold out. I thought I would stay at a hotel near the Metro about 3 - 4 miles out and ride into the Convention Center each day.
+I notice the Americas Best Value Inn (Medical Center) was mentioned as being one of the hotels along the Metro on the internet. The only reason I gave it four stars instead of five is that the hotel staff incorrectly told me it was about a 5 - 10 minute walk to the Metro. It is really a 20-25 minute walk to the Museum District where you would pick up the Metro from this hotel.
+This is one of the least expensive hotels you will find in the downtown area. It is a good value for the money. It is a no frills room, but it was very clean and well maintained. There is not a closet n the room, but you can hang your clothes on a small rod by the TV. The bathroom area was well lite and there was decent water pressure. The bed was clean and comfortable. The staff was friendly and helpful. The complimentary breakfast is cereal, muffins, and coffee. If you are a big breakfast eater, you probably want to plan to go out for breakfast. There is a microwave, refrigerator,...I visited Houston for the first time for an event being held at the George Brown Convention Center. All the hotels in the immediate area were sold out. I thought I would stay at a hotel near the Metro about 3 - 4 miles out and ride into the Convention Center each day.I notice the Americas Best Value Inn (Medical Center) was mentioned as being one of the hotels along the Metro on the internet. The only reason I gave it four stars instead of five is that the hotel staff incorrectly told me it was about a 5 - 10 minute walk to the Metro. It is really a 20-25 minute walk to the Museum District where you would pick up the Metro from this hotel.This is one of the least expensive hotels you will find in the downtown area. It is a good value for the money. It is a no frills room, but it was very clean and well maintained. There is not a closet n the room, but you can hang your clothes on a small rod by the TV. The bathroom area was well lite and there was decent water pressure. The bed was clean and comfortable. The staff was friendly and helpful. The complimentary breakfast is cereal, muffins, and coffee. If you are a big breakfast eater, you probably want to plan to go out for breakfast. There is a microwave, refrigerator, iron and ironing board in the room. This was more then the shared room my son was staying in downtown but paying $350 a night for the room (no microwave, no fridge, no iron). The best review I can give is that I would stay here again if I was looking for a no frills hotel to stay for a night or two in Houston. They delivered on what they advertised. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I visited Houston for the first time for an event being held at the George Brown Convention Center. All the hotels in the immediate area were sold out. I thought I would stay at a hotel near the Metro about 3 - 4 miles out and ride into the Convention Center each day.
+I notice the Americas Best Value Inn (Medical Center) was mentioned as being one of the hotels along the Metro on the internet. The only reason I gave it four stars instead of five is that the hotel staff incorrectly told me it was about a 5 - 10 minute walk to the Metro. It is really a 20-25 minute walk to the Museum District where you would pick up the Metro from this hotel.
+This is one of the least expensive hotels you will find in the downtown area. It is a good value for the money. It is a no frills room, but it was very clean and well maintained. There is not a closet n the room, but you can hang your clothes on a small rod by the TV. The bathroom area was well lite and there was decent water pressure. The bed was clean and comfortable. The staff was friendly and helpful. The complimentary breakfast is cereal, muffins, and coffee. If you are a big breakfast eater, you probably want to plan to go out for breakfast. There is a microwave, refrigerator,...I visited Houston for the first time for an event being held at the George Brown Convention Center. All the hotels in the immediate area were sold out. I thought I would stay at a hotel near the Metro about 3 - 4 miles out and ride into the Convention Center each day.I notice the Americas Best Value Inn (Medical Center) was mentioned as being one of the hotels along the Metro on the internet. The only reason I gave it four stars instead of five is that the hotel staff incorrectly told me it was about a 5 - 10 minute walk to the Metro. It is really a 20-25 minute walk to the Museum District where you would pick up the Metro from this hotel.This is one of the least expensive hotels you will find in the downtown area. It is a good value for the money. It is a no frills room, but it was very clean and well maintained. There is not a closet n the room, but you can hang your clothes on a small rod by the TV. The bathroom area was well lite and there was decent water pressure. The bed was clean and comfortable. The staff was friendly and helpful. The complimentary breakfast is cereal, muffins, and coffee. If you are a big breakfast eater, you probably want to plan to go out for breakfast. There is a microwave, refrigerator, iron and ironing board in the room. This was more then the shared room my son was staying in downtown but paying $350 a night for the room (no microwave, no fridge, no iron). The best review I can give is that I would stay here again if I was looking for a no frills hotel to stay for a night or two in Houston. They delivered on what they advertised. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r574572729-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>574572729</t>
+  </si>
+  <si>
+    <t>04/20/2018</t>
+  </si>
+  <si>
+    <t>Ok, but not great.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im not sure I would stay here again.  The best part for us personally was the location and distance to MD Anderson clinic.  The bed was utterly hard, so if you like firm beds then you will be ok.  It was clean but the rooms were old - very misleading from the outside.  We thought it was a new hotel.  And I should have asked about a MDA discount.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r555255001-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>555255001</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Recommend this hotel with free wifi and parking alone with other amenities.</t>
+  </si>
+  <si>
+    <t>Good place to stay just need to leave more towels for the travelers. Also medical patients should receive more than a 5% discount and a discount if they stay more than one time. We have stayed therefor at least 2yrs of coming to my Dr. Appt since 2015 so about 3 or 4 times.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r529195178-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>529195178</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Nice Place!</t>
+  </si>
+  <si>
+    <t>This hotel is a short distance to the downtown attractions such as the Houston Museum of Natural Science and Zoo. My room was clean and the staff was super friendly and helpful. I would stay here again.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r523128108-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>523128108</t>
+  </si>
+  <si>
+    <t>09/10/2017</t>
+  </si>
+  <si>
+    <t>Clean rooms</t>
+  </si>
+  <si>
+    <t>The rooms were clean and equipped with a mini fridge and microwave.  The shower was rather difficult to operate and there was were few towels provided. The location was convenient for the softball tournament we attended. I would stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r506122447-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>506122447</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Trip for medical checkup</t>
+  </si>
+  <si>
+    <t>I have stayed at ABVI three times now,  It is always clean, the rooms are very reasonable ,and it is quiet so resting at night is never a problem.  The folks at the front desk are pleasant and helpful.  I go every six months for a medical checkup at MD Anderson Cancer Center as I am a cancer survivor, so the location is very close to the center. It is also close to some wonderful restaurants that I enjoy visiting when in Houston.  I will be going again in December and for sure will be staying at ABVI again!</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r473265549-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473265549</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>Unhelpful Management</t>
+  </si>
+  <si>
+    <t>I had very upsetting situation due to weather that forced a delay in the trip I had planned for Houston.  I still need to make this trip- but now can't go for another 2 weeks.  When I asked the manager if he would be willing to change my reservation to the new date without a cancellation fee- he refused. So much for customer service!  I won't ever be staying here.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r462562824-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462562824</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>ABVI to the Rescue!</t>
+  </si>
+  <si>
+    <t>I really enjoyed the stay! I see they must have most recently renovated. This was the best ABVI I have ever stayed in. The room was roomy. I won't disclose everything because I don't want people staying in my preferred room LOL. Thanks to the staff for making sure I had everything I needed for the couple of nights I stayed. I wish ABVI would incorporate a larger variety for breakfast. ;)</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r415473674-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>415473674</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>Good Value and close to the Medical Center</t>
+  </si>
+  <si>
+    <t>I stayed here a week due to business. I felt for the money it was a good place. It is close to the medical center but on the east side of Rt 288. I wouldn't go much more east of this place or north of it either for security sake. However I liked the way the parking lot was one way in and out through the covered lobby area and they had staff there 24/7. I don't think I'd be walking to anywhere from there. I suggest a car.  I never took part of the breakfast, so I can't rate that.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r394103052-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>394103052</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>Reasonable price, great location</t>
+  </si>
+  <si>
+    <t>I have stayed here a couple of times in the last 6 months and will likely stay again.  The hotel is very close to the medical center and very convenient.  The rooms are decent - clean, but not fancy.  I love that there is a small fridge, microwave, and free wifi.  The towels are small and scratchy, and the beds have those really thin covers instead of comforters, which I'm not a big fan of, but overall the place is a good option and better priced than many other hotels near the medical center.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r387950197-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>387950197</t>
+  </si>
+  <si>
+    <t>06/30/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decent motel, great location </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The motel was reasonably priced for being so close to the museum district. I was within walking distance of the zoo, children's museum, museum of natural science, museum of fine art and the McGovern centennial gardens. The staff was very friendly and assisted me whenever i had questions. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r282136886-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>282136886</t>
+  </si>
+  <si>
+    <t>06/22/2015</t>
+  </si>
+  <si>
+    <t>Don't Stay....</t>
+  </si>
+  <si>
+    <t>The bathrooms smelled like urine and the bed were super uncomfortable. ...the breakfast was muffins with apples, cereal with no milk....the most horrific place my kids and I have stayed in all our travel.....dont recommend to anyone especially if you have kids</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r273994199-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>273994199</t>
+  </si>
+  <si>
+    <t>05/23/2015</t>
+  </si>
+  <si>
+    <t>Great value! Close to dtn!</t>
+  </si>
+  <si>
+    <t>Great value and fantastic location!  10 minutes to downtown, easy hwy access and close to Denny's and D&amp;Q beer market!  Wifi worked great, bed was comfortable, fridge worked fine.  Lots of hot waster for the shower.  Close to the hwy but couldn't hear road noise at night.I would recommend &amp; stay here again!</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r269911742-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>269911742</t>
+  </si>
+  <si>
+    <t>05/04/2015</t>
+  </si>
+  <si>
+    <t>Good experience for the money</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised by how updated and nice the motel was.  I was on a strict business budget and this was an excellent deal for the price.  My only 2 issues, and one they can't fix, was the size of the room.  I felt a little cramped.  The breakfast they advertised was just cereal and mini muffins.  They might think of expanding it a little. However, my overall experience was great.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r258679744-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>258679744</t>
+  </si>
+  <si>
+    <t>03/09/2015</t>
+  </si>
+  <si>
+    <t>Reasonably priced, clean and within walking distance of the Museum District.</t>
+  </si>
+  <si>
+    <t>My brother and I stayed at America's Best Hotel for 4 nights prior to a cruise, we picked this hotel due to the proximity to the Museum District which worked out fine.  Breakfast was simple but adequate (barely) with 2 types of cereals, muffins, apples, coffee and orange juice.  Room was clean, internet worked well.  It was a 15 - 20 minute walk to the museum district which was fine for us, not much in the way of restaurants close to the hotel.  Nothing extraordinary but reasonably priced and service was adequate.  There was no stopper in the bathtub as mentioned by a few others but really people, is it that hard to stuff a washcloth or something there!  Air conditioner was a bit on the loud side but we didn't need it at night so not a big deal.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>My brother and I stayed at America's Best Hotel for 4 nights prior to a cruise, we picked this hotel due to the proximity to the Museum District which worked out fine.  Breakfast was simple but adequate (barely) with 2 types of cereals, muffins, apples, coffee and orange juice.  Room was clean, internet worked well.  It was a 15 - 20 minute walk to the museum district which was fine for us, not much in the way of restaurants close to the hotel.  Nothing extraordinary but reasonably priced and service was adequate.  There was no stopper in the bathtub as mentioned by a few others but really people, is it that hard to stuff a washcloth or something there!  Air conditioner was a bit on the loud side but we didn't need it at night so not a big deal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r255587884-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>255587884</t>
+  </si>
+  <si>
+    <t>02/21/2015</t>
+  </si>
+  <si>
+    <t>penny wise, pound foolish</t>
+  </si>
+  <si>
+    <t>The towels were not see-through.  The desk was actually manned every time I went there.  The problem was the tub had no stopper and they did not have one.  A $.99 stopper from Walmart would have been enough but one was not available.  We had to use a hair gel tube and a washcloth to stopper the tub.  The price of the room could have been increased by one dollar and it would have ensured that I would stay here again.  It is very close to the Medical Center.  Cynthia Texas</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r252740005-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>252740005</t>
+  </si>
+  <si>
+    <t>02/05/2015</t>
+  </si>
+  <si>
+    <t>Don't risk it.</t>
+  </si>
+  <si>
+    <t>You know when the desk clerk is behind glass that you've made a terrible booking mistake. Don't be fooled by the decent photo of the property facade. This hotel is dirty, poorly located and completely lacking in amenities. Although if you're a fan of someone else's hair on your washcloth, a bathtub stained a frightening shade of gray and college dorm room furniture, you might like it. I booked four nights because it's walking distance to the medical center, where I was visiting a friend. I left after the first night.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r240592341-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>240592341</t>
+  </si>
+  <si>
+    <t>11/19/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was good. But there could have been a night stand and lamp on both sides of the kingsize bed. The location of the hotel was very convenient to Smith Towers on Fannin Street. Also close to grobert stores and eating establishments. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r238266626-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>238266626</t>
+  </si>
+  <si>
+    <t>11/05/2014</t>
+  </si>
+  <si>
+    <t>The hotel is good for a very short period stay.</t>
+  </si>
+  <si>
+    <t>The hotel is good for a VERY short period stay. The good side is the hotel is only at about 1 mile from the MD Cancer Center and it has free parking. The Wifi goes on and off a lot, but it is a not big deal...</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r225484940-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>225484940</t>
+  </si>
+  <si>
+    <t>08/30/2014</t>
+  </si>
+  <si>
+    <t>Not Very Pleasant</t>
+  </si>
+  <si>
+    <t>When we checked in the room was very hot as the A/C wasn't working very well.  Also the bathtub was dirty.  We had reserved 2 adjoining rooms as one family had a baby and needed a crib.  Having cribs available was advertised on the internet but the front desk said they don't have cribs.  Also advertised was free Wi-Fi but it didn't work.  Not all channels listed on the channel directory were available.The staff was not very friendly and knowledge of the area was minimal.   I wanted to relax and eat at a restaurant that had a full service bar and the staff didn't know what I was talking about.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>When we checked in the room was very hot as the A/C wasn't working very well.  Also the bathtub was dirty.  We had reserved 2 adjoining rooms as one family had a baby and needed a crib.  Having cribs available was advertised on the internet but the front desk said they don't have cribs.  Also advertised was free Wi-Fi but it didn't work.  Not all channels listed on the channel directory were available.The staff was not very friendly and knowledge of the area was minimal.   I wanted to relax and eat at a restaurant that had a full service bar and the staff didn't know what I was talking about.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r212168200-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>212168200</t>
+  </si>
+  <si>
+    <t>06/26/2014</t>
+  </si>
+  <si>
+    <t>Find somewhere else to stay!!!!</t>
+  </si>
+  <si>
+    <t>Looking at the pictures and a few reviews I thought, let me give this place a try. The price was good and I thought the location would be good.....NOT!!!!! The area is on the side of the freeway across from some lot overgrown with trees! The neighborhood that it borders is not good so u out really may not want to walk around. The only restaurants around are Denny's and Subway. The Thai restaurant looked deserted. I am very disappointed with this stay. Won't stay here again and I wont recommend it to anyone.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r211403833-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>211403833</t>
+  </si>
+  <si>
+    <t>06/21/2014</t>
+  </si>
+  <si>
+    <t>Value for the $$</t>
+  </si>
+  <si>
+    <t>I stayed at this motel for the convenience of location.  The staff were helpful and very nice.  The wi-fi was awful. I spent more time disconnecting and reconnecting than on the internet.  Soda machine was out of soda's and the ice machine was out of ice.  A local cop goes into the office every aftnoon and takes a crap in the restroom.  Less than average on the interior rooms.  Run down with age.  Had to hold handle down on toilet until it was complete.  Sink had no pressure and barely ran out and sprayed everywhere.  5 miles or so away, same motel for $43.99.  I paid 70 something.  King size bed with barely any walking room.  No tissues, no ice bag, no drawers. no coffee maker.   I stayed at a HOTEL at the airport in Dallas, TX and had a huge room, large bathroom, extra living area, small kitchen area, with 2 adults and 3 kids for $65 with free shuttle to airport.  This MOTEL is overpriced for what you don't get much less what you do.  And no pool.  I will stay further elsewhere and pay less next round.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>I stayed at this motel for the convenience of location.  The staff were helpful and very nice.  The wi-fi was awful. I spent more time disconnecting and reconnecting than on the internet.  Soda machine was out of soda's and the ice machine was out of ice.  A local cop goes into the office every aftnoon and takes a crap in the restroom.  Less than average on the interior rooms.  Run down with age.  Had to hold handle down on toilet until it was complete.  Sink had no pressure and barely ran out and sprayed everywhere.  5 miles or so away, same motel for $43.99.  I paid 70 something.  King size bed with barely any walking room.  No tissues, no ice bag, no drawers. no coffee maker.   I stayed at a HOTEL at the airport in Dallas, TX and had a huge room, large bathroom, extra living area, small kitchen area, with 2 adults and 3 kids for $65 with free shuttle to airport.  This MOTEL is overpriced for what you don't get much less what you do.  And no pool.  I will stay further elsewhere and pay less next round.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r203457018-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>203457018</t>
+  </si>
+  <si>
+    <t>04/30/2014</t>
+  </si>
+  <si>
+    <t>Great Value in Medical Center area</t>
+  </si>
+  <si>
+    <t>Great hotel if you keep your expectations in check. Check in and check out were a breeze; guy in the office is very friendly and efficient. The room itself, (117); not bad at all for the $92.50 (fees and taxes included). I actually liked the lighting in the room; I don't like to have to turn on lamps throughout a room for dim light. Everything in the room was acceptable and clean. The bed was firm; which I like. The drawbacks of this property are as follows; 1) Kind of hard to find. 2) Breakfast is a joke. 3) Not enough pillows on bed. Overall, I found it to be a great value in comparison to the typical $200+ per night rooms in the Medical Center area. Would recommend and would stay again upon return.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great hotel if you keep your expectations in check. Check in and check out were a breeze; guy in the office is very friendly and efficient. The room itself, (117); not bad at all for the $92.50 (fees and taxes included). I actually liked the lighting in the room; I don't like to have to turn on lamps throughout a room for dim light. Everything in the room was acceptable and clean. The bed was firm; which I like. The drawbacks of this property are as follows; 1) Kind of hard to find. 2) Breakfast is a joke. 3) Not enough pillows on bed. Overall, I found it to be a great value in comparison to the typical $200+ per night rooms in the Medical Center area. Would recommend and would stay again upon return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r163512742-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163512742</t>
+  </si>
+  <si>
+    <t>06/09/2013</t>
+  </si>
+  <si>
+    <t>Don't stay here!</t>
+  </si>
+  <si>
+    <t>This was our first time visiting Houston and didn't know the areas to know what was a good area to stay. It was sitting at the corner of a residential neighborhood that clearly didn't look safe. The staff was friendly but the room was awful! It was old food still left in our room by the microwave and a dead bug in the shower. There were four sheets on the beds with a thin blanket sandwiched in between them to make up for not having real blankets. The top sheet on one of the beds had a burn hole in it and the mini blanket at the foot of the bed had dried up stains on them. I pulled the sheets back and they had stains on them as well as the mattress pads underneath. I went to the office to let them know how unhappy I was with the room and they gave us a full refund and we found a better motel in a safer area in Katy which is about 30 minutes from downtown Houston and was cheaper than ABV. Everything you need is right there in Katy close by (stores, resturants, etc). I would not recommend this motel to anyone unless you really need to be close to downtown and want something cheap. I would suggest taking that extra drive to stay in a nicer place and area. Its worth the extra drive.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was our first time visiting Houston and didn't know the areas to know what was a good area to stay. It was sitting at the corner of a residential neighborhood that clearly didn't look safe. The staff was friendly but the room was awful! It was old food still left in our room by the microwave and a dead bug in the shower. There were four sheets on the beds with a thin blanket sandwiched in between them to make up for not having real blankets. The top sheet on one of the beds had a burn hole in it and the mini blanket at the foot of the bed had dried up stains on them. I pulled the sheets back and they had stains on them as well as the mattress pads underneath. I went to the office to let them know how unhappy I was with the room and they gave us a full refund and we found a better motel in a safer area in Katy which is about 30 minutes from downtown Houston and was cheaper than ABV. Everything you need is right there in Katy close by (stores, resturants, etc). I would not recommend this motel to anyone unless you really need to be close to downtown and want something cheap. I would suggest taking that extra drive to stay in a nicer place and area. Its worth the extra drive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r159987593-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>159987593</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>Good value for a Value Hotel</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for a weekend and was happy about the overall value offered. The hotel is very minimalistic but it is well positioned if you have business downtown. Rooms are quiet and spacious. No breakfast to speak of and also the neighborhood is not the best...</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r159088181-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>159088181</t>
+  </si>
+  <si>
+    <t>04/28/2013</t>
+  </si>
+  <si>
+    <t>Adequate</t>
+  </si>
+  <si>
+    <t>There is no indoor hallway; all rooms open to the parking lot.  There were no extra towels or tissues.  Our room key did not work one night and had to get re-swiped.  It's just off the highway, but the neighborhood to the east was not particularly inviting.These were not big concerns of ours, and in other respects the hotel was just fine (clean room, courteous staff), but others may find such "features" unacceptable.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r153744639-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153744639</t>
+  </si>
+  <si>
+    <t>03/04/2013</t>
+  </si>
+  <si>
+    <t>I rarely travel but here's my experience</t>
+  </si>
+  <si>
+    <t>Had to stay a couple of days for a visit to the M D Anderson Medical Center.  Easy to find even though I've never been to Houston. Exterior a little the worse for wear (outside trash cans need attention, cigarette butts on sidewalk, etc.) but OK. Included mini-fridge and microwave came in very handy. Bath and shower enclosed with sink counter open to the room. Ice, glasses and all necessary's in evidence. Bed was not up to my standards for comfort and my back hurt. Television was enclosed in an entertainment center (includes DVD player if you want to bring your own movies) that was right at the foot of the bed for easy viewing and there was a nice selection of channels. Maybe I should have asked at the desk but there was no remote in my room and I had to manually change channels (took me right back to the '50's). It was a little noisy being right off of South Freeway (I live in a rural area) but not terrible; in fact the second night I didn't even notice it and slept well. Everyone was friendly. Even though I had maps and a Tom Tom for backup another guest gave me a more direct route to follow and it was amazingly easy to get to the treatment center. When I left, the desk man gave me good directions to follow to exit Houston rapidly. No complaints about...Had to stay a couple of days for a visit to the M D Anderson Medical Center.  Easy to find even though I've never been to Houston. Exterior a little the worse for wear (outside trash cans need attention, cigarette butts on sidewalk, etc.) but OK. Included mini-fridge and microwave came in very handy. Bath and shower enclosed with sink counter open to the room. Ice, glasses and all necessary's in evidence. Bed was not up to my standards for comfort and my back hurt. Television was enclosed in an entertainment center (includes DVD player if you want to bring your own movies) that was right at the foot of the bed for easy viewing and there was a nice selection of channels. Maybe I should have asked at the desk but there was no remote in my room and I had to manually change channels (took me right back to the '50's). It was a little noisy being right off of South Freeway (I live in a rural area) but not terrible; in fact the second night I didn't even notice it and slept well. Everyone was friendly. Even though I had maps and a Tom Tom for backup another guest gave me a more direct route to follow and it was amazingly easy to get to the treatment center. When I left, the desk man gave me good directions to follow to exit Houston rapidly. No complaints about cleanliness or maid service; all up to snuff. I did run the A/C. It worked well and I was surprised at how quietly it ran. I did not try the free breakfast on my stay so I can't comment on that but yes, the dining area is small.  Manager was a nice guy and very accomodating.. I'll have surgery soon and need a weeks stay in the area. I was quoted less than $45/night (before taxes) for a 7 day stay. Very affordable, didn't see any bedbugs (and after reading the other review on this site, I looked) and pretty reasonable accomodations. Neighborhood is a little spotty so I took a 357 snubby with me for the evenings (this is Texas after all). I wouldn't worry about strolling the area in the daytime. Also very easy to get to and from the medical area so don't let the lack of a shuttle deter you. I can get lost everywhere and even I didn't have problems. You could do much worse and the value can't be beat.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Had to stay a couple of days for a visit to the M D Anderson Medical Center.  Easy to find even though I've never been to Houston. Exterior a little the worse for wear (outside trash cans need attention, cigarette butts on sidewalk, etc.) but OK. Included mini-fridge and microwave came in very handy. Bath and shower enclosed with sink counter open to the room. Ice, glasses and all necessary's in evidence. Bed was not up to my standards for comfort and my back hurt. Television was enclosed in an entertainment center (includes DVD player if you want to bring your own movies) that was right at the foot of the bed for easy viewing and there was a nice selection of channels. Maybe I should have asked at the desk but there was no remote in my room and I had to manually change channels (took me right back to the '50's). It was a little noisy being right off of South Freeway (I live in a rural area) but not terrible; in fact the second night I didn't even notice it and slept well. Everyone was friendly. Even though I had maps and a Tom Tom for backup another guest gave me a more direct route to follow and it was amazingly easy to get to the treatment center. When I left, the desk man gave me good directions to follow to exit Houston rapidly. No complaints about...Had to stay a couple of days for a visit to the M D Anderson Medical Center.  Easy to find even though I've never been to Houston. Exterior a little the worse for wear (outside trash cans need attention, cigarette butts on sidewalk, etc.) but OK. Included mini-fridge and microwave came in very handy. Bath and shower enclosed with sink counter open to the room. Ice, glasses and all necessary's in evidence. Bed was not up to my standards for comfort and my back hurt. Television was enclosed in an entertainment center (includes DVD player if you want to bring your own movies) that was right at the foot of the bed for easy viewing and there was a nice selection of channels. Maybe I should have asked at the desk but there was no remote in my room and I had to manually change channels (took me right back to the '50's). It was a little noisy being right off of South Freeway (I live in a rural area) but not terrible; in fact the second night I didn't even notice it and slept well. Everyone was friendly. Even though I had maps and a Tom Tom for backup another guest gave me a more direct route to follow and it was amazingly easy to get to the treatment center. When I left, the desk man gave me good directions to follow to exit Houston rapidly. No complaints about cleanliness or maid service; all up to snuff. I did run the A/C. It worked well and I was surprised at how quietly it ran. I did not try the free breakfast on my stay so I can't comment on that but yes, the dining area is small.  Manager was a nice guy and very accomodating.. I'll have surgery soon and need a weeks stay in the area. I was quoted less than $45/night (before taxes) for a 7 day stay. Very affordable, didn't see any bedbugs (and after reading the other review on this site, I looked) and pretty reasonable accomodations. Neighborhood is a little spotty so I took a 357 snubby with me for the evenings (this is Texas after all). I wouldn't worry about strolling the area in the daytime. Also very easy to get to and from the medical area so don't let the lack of a shuttle deter you. I can get lost everywhere and even I didn't have problems. You could do much worse and the value can't be beat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r144096888-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144096888</t>
+  </si>
+  <si>
+    <t>10/30/2012</t>
+  </si>
+  <si>
+    <t>Simple and cheapest hotel this close to downtown</t>
+  </si>
+  <si>
+    <t>This is a good hotel to stay in if you don't want to be too far from the downtown area, but at half the cost of a downtown hotel. It is near the museum district and lovely Hermann park. Public transport is possible, though the light rail stop is a good 20 minute walk, crossing the bridge over the 288 freeway. The room has some signs of wear and tear but was fine and clean, which is important. Breakfast was self service and confined to a tiny corner of the entrance lobby, and there are only three tables, so you need to get there early. The manager was friendly and helpful, and did a few searches to look for information for me to make my visit more comfortable. One word of warning - this is a dodgy area at night, so avoid walking in the street or neighbouring streets especially in the evening. Driving back to the hotel at night I spotted quite a few dodgy individuals hanging about the streets, looking up to no good, so beware.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>This is a good hotel to stay in if you don't want to be too far from the downtown area, but at half the cost of a downtown hotel. It is near the museum district and lovely Hermann park. Public transport is possible, though the light rail stop is a good 20 minute walk, crossing the bridge over the 288 freeway. The room has some signs of wear and tear but was fine and clean, which is important. Breakfast was self service and confined to a tiny corner of the entrance lobby, and there are only three tables, so you need to get there early. The manager was friendly and helpful, and did a few searches to look for information for me to make my visit more comfortable. One word of warning - this is a dodgy area at night, so avoid walking in the street or neighbouring streets especially in the evening. Driving back to the hotel at night I spotted quite a few dodgy individuals hanging about the streets, looking up to no good, so beware.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r137402562-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>137402562</t>
+  </si>
+  <si>
+    <t>08/16/2012</t>
+  </si>
+  <si>
+    <t>If you need cheap this is your place!</t>
+  </si>
+  <si>
+    <t>Staying here for several days while my mother see's specialists at MD Anderson. While it is only a short drive away this hotel leaves a bit to be desired. First let me start by saying that I have stayed at worse places. The motel is supposedly "newer" but is in a slightly rougher part of town than I would like to be in. Do I feel safe in my room? - Yes. Would I walk down the street in this area? - NO There doesn't seem to be any nice places to eat nearby but there are a couple pizza and sandwich shops that will deliver here. The rooms are average at best. Fairly clean except the carpet (but most motels have gross carpet). The beds are a mattress on a wooden platform - my back hurts in the morning .... Enough said. There is a small fridge and microwave which is nice. The TV is good and there are decent low level cable channels. The air is cold and the heat works (not that you would need it). The "continental" breakfast is NOTHING more than muffins, stale Cheerios, Raisin Bran and a pot of coffee - the gas station has a better selection. The guy at the front desk is friendly enough but is behind plexiglass (enough said?) The free WiFi is VERY spotty. All in all if I had to do it over I most likely wouldn't stay...Staying here for several days while my mother see's specialists at MD Anderson. While it is only a short drive away this hotel leaves a bit to be desired. First let me start by saying that I have stayed at worse places. The motel is supposedly "newer" but is in a slightly rougher part of town than I would like to be in. Do I feel safe in my room? - Yes. Would I walk down the street in this area? - NO There doesn't seem to be any nice places to eat nearby but there are a couple pizza and sandwich shops that will deliver here. The rooms are average at best. Fairly clean except the carpet (but most motels have gross carpet). The beds are a mattress on a wooden platform - my back hurts in the morning .... Enough said. There is a small fridge and microwave which is nice. The TV is good and there are decent low level cable channels. The air is cold and the heat works (not that you would need it). The "continental" breakfast is NOTHING more than muffins, stale Cheerios, Raisin Bran and a pot of coffee - the gas station has a better selection. The guy at the front desk is friendly enough but is behind plexiglass (enough said?) The free WiFi is VERY spotty. All in all if I had to do it over I most likely wouldn't stay here again - but if this is the only thing in your price range it is completely survivable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Staying here for several days while my mother see's specialists at MD Anderson. While it is only a short drive away this hotel leaves a bit to be desired. First let me start by saying that I have stayed at worse places. The motel is supposedly "newer" but is in a slightly rougher part of town than I would like to be in. Do I feel safe in my room? - Yes. Would I walk down the street in this area? - NO There doesn't seem to be any nice places to eat nearby but there are a couple pizza and sandwich shops that will deliver here. The rooms are average at best. Fairly clean except the carpet (but most motels have gross carpet). The beds are a mattress on a wooden platform - my back hurts in the morning .... Enough said. There is a small fridge and microwave which is nice. The TV is good and there are decent low level cable channels. The air is cold and the heat works (not that you would need it). The "continental" breakfast is NOTHING more than muffins, stale Cheerios, Raisin Bran and a pot of coffee - the gas station has a better selection. The guy at the front desk is friendly enough but is behind plexiglass (enough said?) The free WiFi is VERY spotty. All in all if I had to do it over I most likely wouldn't stay...Staying here for several days while my mother see's specialists at MD Anderson. While it is only a short drive away this hotel leaves a bit to be desired. First let me start by saying that I have stayed at worse places. The motel is supposedly "newer" but is in a slightly rougher part of town than I would like to be in. Do I feel safe in my room? - Yes. Would I walk down the street in this area? - NO There doesn't seem to be any nice places to eat nearby but there are a couple pizza and sandwich shops that will deliver here. The rooms are average at best. Fairly clean except the carpet (but most motels have gross carpet). The beds are a mattress on a wooden platform - my back hurts in the morning .... Enough said. There is a small fridge and microwave which is nice. The TV is good and there are decent low level cable channels. The air is cold and the heat works (not that you would need it). The "continental" breakfast is NOTHING more than muffins, stale Cheerios, Raisin Bran and a pot of coffee - the gas station has a better selection. The guy at the front desk is friendly enough but is behind plexiglass (enough said?) The free WiFi is VERY spotty. All in all if I had to do it over I most likely wouldn't stay here again - but if this is the only thing in your price range it is completely survivable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r129216487-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129216487</t>
+  </si>
+  <si>
+    <t>05/01/2012</t>
+  </si>
+  <si>
+    <t>Bed bugs!!!</t>
+  </si>
+  <si>
+    <t>Room was fine but I noticed 2 bed bugs.  They tried showing me another room and when I checked the mattress for bugs a crack pipe literally fell out from under the mattress.   I couldn't make this up if I tried.  Leaving now!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r127826926-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>127826926</t>
+  </si>
+  <si>
+    <t>04/13/2012</t>
+  </si>
+  <si>
+    <t>Clean &amp; Affordable</t>
+  </si>
+  <si>
+    <t>If you need a clean and affordable place to stay near the Houston Medical Center or the Museum district, consider this place. My room was small, but had all I needed. The only downside was that it was equipped with the kind of AC that cycles on and off to maintain the temperature. With my sleeping style I really prefer the kind that will maintain coolness AND allow the fan to run full time for the white noise.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r121776784-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>121776784</t>
+  </si>
+  <si>
+    <t>12/15/2011</t>
+  </si>
+  <si>
+    <t>First Time in Houston</t>
+  </si>
+  <si>
+    <t>I went to Houston for a seminar a few months ago and, and I stayed at the ABV Inn. That was 3 stays ago, and I plan to keep coming back.  Everyone who works there is super friendly, and makes me feel accommodated.  The area that it is located may seem be off the beaten path, but I have always felt comfortable. (Thanks, Andy)...Juan V.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1151,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1183,2148 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s">
+        <v>120</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" t="s">
+        <v>131</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>132</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" t="s">
+        <v>136</v>
+      </c>
+      <c r="L16" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" t="s">
+        <v>141</v>
+      </c>
+      <c r="K17" t="s">
+        <v>142</v>
+      </c>
+      <c r="L17" t="s">
+        <v>143</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>144</v>
+      </c>
+      <c r="O17" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" t="s">
+        <v>148</v>
+      </c>
+      <c r="K18" t="s">
+        <v>149</v>
+      </c>
+      <c r="L18" t="s">
+        <v>150</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>144</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>152</v>
+      </c>
+      <c r="J19" t="s">
+        <v>153</v>
+      </c>
+      <c r="K19" t="s">
+        <v>154</v>
+      </c>
+      <c r="L19" t="s">
+        <v>155</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>144</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" t="s">
+        <v>159</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>161</v>
+      </c>
+      <c r="J21" t="s">
+        <v>162</v>
+      </c>
+      <c r="K21" t="s">
+        <v>163</v>
+      </c>
+      <c r="L21" t="s">
+        <v>164</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>165</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>167</v>
+      </c>
+      <c r="J22" t="s">
+        <v>168</v>
+      </c>
+      <c r="K22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L22" t="s">
+        <v>170</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>171</v>
+      </c>
+      <c r="O22" t="s">
+        <v>67</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>174</v>
+      </c>
+      <c r="J23" t="s">
+        <v>175</v>
+      </c>
+      <c r="K23" t="s">
+        <v>176</v>
+      </c>
+      <c r="L23" t="s">
+        <v>177</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>178</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>179</v>
+      </c>
+      <c r="J24" t="s">
+        <v>180</v>
+      </c>
+      <c r="K24" t="s">
+        <v>181</v>
+      </c>
+      <c r="L24" t="s">
+        <v>182</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>183</v>
+      </c>
+      <c r="O24" t="s">
+        <v>74</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>185</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>186</v>
+      </c>
+      <c r="J25" t="s">
+        <v>187</v>
+      </c>
+      <c r="K25" t="s">
+        <v>188</v>
+      </c>
+      <c r="L25" t="s">
+        <v>189</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>191</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>192</v>
+      </c>
+      <c r="J26" t="s">
+        <v>193</v>
+      </c>
+      <c r="K26" t="s">
+        <v>194</v>
+      </c>
+      <c r="L26" t="s">
+        <v>195</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>197</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>198</v>
+      </c>
+      <c r="J27" t="s">
+        <v>199</v>
+      </c>
+      <c r="K27" t="s">
+        <v>200</v>
+      </c>
+      <c r="L27" t="s">
+        <v>201</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>202</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>203</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>204</v>
+      </c>
+      <c r="J28" t="s">
+        <v>205</v>
+      </c>
+      <c r="K28" t="s">
+        <v>206</v>
+      </c>
+      <c r="L28" t="s">
+        <v>207</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>208</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>210</v>
+      </c>
+      <c r="J29" t="s">
+        <v>211</v>
+      </c>
+      <c r="K29" t="s">
+        <v>212</v>
+      </c>
+      <c r="L29" t="s">
+        <v>213</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>214</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>216</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>217</v>
+      </c>
+      <c r="J30" t="s">
+        <v>218</v>
+      </c>
+      <c r="K30" t="s">
+        <v>219</v>
+      </c>
+      <c r="L30" t="s">
+        <v>220</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>221</v>
+      </c>
+      <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>223</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>224</v>
+      </c>
+      <c r="J31" t="s">
+        <v>225</v>
+      </c>
+      <c r="K31" t="s">
+        <v>226</v>
+      </c>
+      <c r="L31" t="s">
+        <v>227</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>229</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>230</v>
+      </c>
+      <c r="J32" t="s">
+        <v>231</v>
+      </c>
+      <c r="K32" t="s">
+        <v>232</v>
+      </c>
+      <c r="L32" t="s">
+        <v>233</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>234</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>235</v>
+      </c>
+      <c r="J33" t="s">
+        <v>236</v>
+      </c>
+      <c r="K33" t="s">
+        <v>237</v>
+      </c>
+      <c r="L33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>239</v>
+      </c>
+      <c r="O33" t="s">
+        <v>74</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>240</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>241</v>
+      </c>
+      <c r="J34" t="s">
+        <v>242</v>
+      </c>
+      <c r="K34" t="s">
+        <v>243</v>
+      </c>
+      <c r="L34" t="s">
+        <v>244</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>245</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_16.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_16.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="376">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r595237202-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1636050</t>
+  </si>
+  <si>
+    <t>595237202</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>Travel to MD Anderson</t>
+  </si>
+  <si>
+    <t>Stayed at this motel 2 nights.  Looks are very deceiving, as it looks great from the outside.  Room was not much more than a bed and bathroom, and bed was not that comfortable. Hot water in the shower was hit and miss and the tub was very slick, nearly fell a couple times. There is no elevator so if you have trouble with steps this is not the place to stay.  Breakfast consisted of 2 types dry cereal, a blueberry muffin and coffee.  I would not recommend this motel. There are other better places for the same money.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r578177854-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>578177854</t>
+  </si>
+  <si>
+    <t>05/05/2018</t>
+  </si>
+  <si>
+    <t>Close to Houston's Medical Center and Museum District</t>
+  </si>
+  <si>
+    <t>We stayed here one night while touring several nearby Houston museums.  Although the rooms and amenities are only okay, the location of this motel is very near Houston's Medical Center and Museum District, which meant that we were able to drive from the museum back to the motel during rush hour traffic with no problems---no getting on the packed freeway.  It's also not far from a number of restaurants and bars.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r577663371-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>1636050</t>
-  </si>
-  <si>
     <t>577663371</t>
   </si>
   <si>
@@ -172,12 +214,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hotel was ok for one night. Priced very reasonable. Nothing really stood out that was too good or too bad. I always carry my own bedding and sheets and towels. Glad I did this time. Whites didn’t look too white. </t>
-  </si>
-  <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r575159463-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
@@ -226,6 +262,42 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r566626445-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566626445</t>
+  </si>
+  <si>
+    <t>03/15/2018</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>If you’re looking for somewhere basic to rest your head for a few hours this is the place for you. About the room:The bed was pretty firm. There wasn’t much water pressure in the shower, but the water was hot and that’s what matters in my opinion.The floors were nice because it wasn’t carpet so it didn’t feel dirty like most rooms. The walls seem pretty thin or the neighbors were pretty loud. There was a mini fridge, microwave and tv in the room, but none of which I used during my stay. The property &amp; staff The location wasn’t bad and not far from the hospitals. It was very easy to get in and out of. The staff was very friendly. Both the PM and AM guy running the office. The parking lot was well lit, but small so if you’re pulling a trailer chances are you will probably not have a place to park. The price was great compared to all other hotel/motels in the area. Overall, it was a decent place to stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>If you’re looking for somewhere basic to rest your head for a few hours this is the place for you. About the room:The bed was pretty firm. There wasn’t much water pressure in the shower, but the water was hot and that’s what matters in my opinion.The floors were nice because it wasn’t carpet so it didn’t feel dirty like most rooms. The walls seem pretty thin or the neighbors were pretty loud. There was a mini fridge, microwave and tv in the room, but none of which I used during my stay. The property &amp; staff The location wasn’t bad and not far from the hospitals. It was very easy to get in and out of. The staff was very friendly. Both the PM and AM guy running the office. The parking lot was well lit, but small so if you’re pulling a trailer chances are you will probably not have a place to park. The price was great compared to all other hotel/motels in the area. Overall, it was a decent place to stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r565907539-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>565907539</t>
+  </si>
+  <si>
+    <t>03/11/2018</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>Room was clean.  A/C and heat worked.  Nothing fancy but a good room for the price. Front desk personnel very friendly.  Not far from our destination, NRG Stadium.  Close to convenience stores.  Right off 288 but we didn't hear the traffic.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r555255001-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -280,6 +352,39 @@
     <t>The rooms were clean and equipped with a mini fridge and microwave.  The shower was rather difficult to operate and there was were few towels provided. The location was convenient for the softball tournament we attended. I would stay there again.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r522714763-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>522714763</t>
+  </si>
+  <si>
+    <t>09/08/2017</t>
+  </si>
+  <si>
+    <t>Near MD Anderson</t>
+  </si>
+  <si>
+    <t>I spent 2 nights here in September 2017.  The room was basic, had low hot water pressure and was located in marginal neighborhood.  The staff was friendly and the coffee was good, but breakfast wasn't included in my room rate.  If I go back to this location, I would not stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r508570470-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>508570470</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t>My review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I totally enjoyed my stay. The manager and staff is super friendly and helping. Will stay again. I would recommend this place. It is near by major highways and places I was interested in. I enjoyed my stayed. </t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r506122447-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -334,6 +439,42 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r425462362-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>425462362</t>
+  </si>
+  <si>
+    <t>10/05/2016</t>
+  </si>
+  <si>
+    <t>The room had an odor when we arrived. The need major renovations</t>
+  </si>
+  <si>
+    <t>It was ok because it was only 7 minutes away to the hospital. We could not get the wi-fi to work. The odor when we first walk in was not nice. I had to use Lysol to spray the room. There was no ventilation in the room, The bathroom was very small. They did not clean the room good. I found white hair on the counter and hair in the tub. The carpet need to be replace, there was an iron mark on the floor. I was very disappointed. You get what you pay for, The people who were running it was very nice. I don't think I will be staying there anymore If we do I hope that all problems has been resolved.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>It was ok because it was only 7 minutes away to the hospital. We could not get the wi-fi to work. The odor when we first walk in was not nice. I had to use Lysol to spray the room. There was no ventilation in the room, The bathroom was very small. They did not clean the room good. I found white hair on the counter and hair in the tub. The carpet need to be replace, there was an iron mark on the floor. I was very disappointed. You get what you pay for, The people who were running it was very nice. I don't think I will be staying there anymore If we do I hope that all problems has been resolved.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r420363940-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>420363940</t>
+  </si>
+  <si>
+    <t>09/19/2016</t>
+  </si>
+  <si>
+    <t>clean and in good condition</t>
+  </si>
+  <si>
+    <t>The place was very clean and in great condition! The bathroom was great. The front desk staff was courteous and efficient. They provided the wireless password on the key card. I was pleasantly surprised.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r415473674-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -385,6 +526,45 @@
     <t xml:space="preserve">The motel was reasonably priced for being so close to the museum district. I was within walking distance of the zoo, children's museum, museum of natural science, museum of fine art and the McGovern centennial gardens. The staff was very friendly and assisted me whenever i had questions. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r346011725-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>346011725</t>
+  </si>
+  <si>
+    <t>02/08/2016</t>
+  </si>
+  <si>
+    <t>Beware!</t>
+  </si>
+  <si>
+    <t>Even for a budget hotel, I felt I paid too much. We had 3 people traveling, 2 over age 60. We could not get a 1st floor room because the hotel said it needed repairs. We were put on the 2nd floor instead (not happy), and in a smaller room with standard beds. There were not enough towels in the room for 3 people. After requesting extra towels the 1st night, I thought this would be remedied going forward. Wrong - each night of our stay I had to request extra towels (no attention to detail). The rooms need attention. Water pressure was low in sink, good in shower, but toilet had problems. Bedding, furniture and towels need updates as well. I was also shocked that I was charged for the 3 nights up-front upon check-in. Most hotels charge at the end of your stay. I had a loved one at St. Luke's that was in ICU and most hotels were booked and overpriced due to an event in town. I will not make the mistake of choosing this place again. I will gladly pay more for better service and peace of mind.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Even for a budget hotel, I felt I paid too much. We had 3 people traveling, 2 over age 60. We could not get a 1st floor room because the hotel said it needed repairs. We were put on the 2nd floor instead (not happy), and in a smaller room with standard beds. There were not enough towels in the room for 3 people. After requesting extra towels the 1st night, I thought this would be remedied going forward. Wrong - each night of our stay I had to request extra towels (no attention to detail). The rooms need attention. Water pressure was low in sink, good in shower, but toilet had problems. Bedding, furniture and towels need updates as well. I was also shocked that I was charged for the 3 nights up-front upon check-in. Most hotels charge at the end of your stay. I had a loved one at St. Luke's that was in ICU and most hotels were booked and overpriced due to an event in town. I will not make the mistake of choosing this place again. I will gladly pay more for better service and peace of mind.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r297708377-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>297708377</t>
+  </si>
+  <si>
+    <t>08/10/2015</t>
+  </si>
+  <si>
+    <t>Dismal place with rude manager</t>
+  </si>
+  <si>
+    <t>This place is not worth the room rate. The toilet seat doesn't stay up, the room is hot and smells odd, and the manager refused to give me a plug for the bath so that I could soak after eight hours of driving. Don't stay here under any circumstances.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r282136886-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -439,6 +619,39 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r261890667-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261890667</t>
+  </si>
+  <si>
+    <t>03/26/2015</t>
+  </si>
+  <si>
+    <t>Small but comfortable</t>
+  </si>
+  <si>
+    <t>This was our first time staying in this hotel.  It is a budget hotel, but, we had no issues with service, cleanliness or comfort.  The room is quite small but functional and the bed was very comfortable.  Breakfast is as advertised and is very limited.  I would recommend this hotel if you are looking at a budget stay.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r261086827-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261086827</t>
+  </si>
+  <si>
+    <t>03/22/2015</t>
+  </si>
+  <si>
+    <t>Won't go again</t>
+  </si>
+  <si>
+    <t>The outside looks nice and the pictures for the rooms are misleading. The minute you walk into the room you're over powered by the smell of cleaning chemicals. The bed covers had stains on them the room was humid no matter what I did felt like I was sleeping on wet sheets. The shower had a large amount of mold surrounding it the sink wouldn't drain and the fridge didn't work. I was staying in room 219 I don't know if the other rooms are the same but I know I wouldn't go back.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r258679744-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -490,6 +703,39 @@
     <t>You know when the desk clerk is behind glass that you've made a terrible booking mistake. Don't be fooled by the decent photo of the property facade. This hotel is dirty, poorly located and completely lacking in amenities. Although if you're a fan of someone else's hair on your washcloth, a bathtub stained a frightening shade of gray and college dorm room furniture, you might like it. I booked four nights because it's walking distance to the medical center, where I was visiting a friend. I left after the first night.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r242567912-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>242567912</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>Convenient to MD Anderson</t>
+  </si>
+  <si>
+    <t>This hotel offers a basic room at a decent price with just a short drive to MD Anderson.  We have stayed here about 4 times now.  The hotel doesn't have a lot of storage, so I wouldn't suggest using this hotel for a long stay.  Although I haven't used them, there is a microwave &amp; refrigerator.  If you like to take bathes, you might want to bring a stopper for the tub.  We have used a washcloth to plug the hole.  The breakfast consists of cereal, muffins, apples &amp; juice, coffee &amp; milk to drink.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r240834790-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>240834790</t>
+  </si>
+  <si>
+    <t>11/21/2014</t>
+  </si>
+  <si>
+    <t>Excellent Value</t>
+  </si>
+  <si>
+    <t>The staff here is always friendly and accomodating. The rooms are clean and comparable to many other higher-priced hotels...for a really low price. The hotel next door makes the neighborhood look bad, but the property is well lighted and secure. We have stayed here a couple times when travelling to/thru Houston for pleasure. We will stay here again if the opportunity presents otself.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r240592341-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -541,6 +787,45 @@
     <t>When we checked in the room was very hot as the A/C wasn't working very well.  Also the bathtub was dirty.  We had reserved 2 adjoining rooms as one family had a baby and needed a crib.  Having cribs available was advertised on the internet but the front desk said they don't have cribs.  Also advertised was free Wi-Fi but it didn't work.  Not all channels listed on the channel directory were available.The staff was not very friendly and knowledge of the area was minimal.   I wanted to relax and eat at a restaurant that had a full service bar and the staff didn't know what I was talking about.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r214829042-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>214829042</t>
+  </si>
+  <si>
+    <t>07/11/2014</t>
+  </si>
+  <si>
+    <t>Better than expected!</t>
+  </si>
+  <si>
+    <t>Had a last minute trip to Houston, and took a chance on this place. Rates were very reasonable and place looked like it had recently been renovated. Location is not the greatest, but luckily the facility is pretty secure and only has one entrance by the highway. We also saw police going by a couple times. The room was clean and comfortable. It was obviously renovated, and again not the greatest, but remember what you are paying. Nice hotels in the same relative area will run you close to $200. Yes it is right by the highway, and you can hear cars but that did not bother me or my 1 year old daughter. So overall if you are looking for a cheap place in this area that isn't a total dump. this place fits the bill. If you want awesome accommodations, a pool, great wifi, and so on, book a nicer hotel and pay twice the rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Had a last minute trip to Houston, and took a chance on this place. Rates were very reasonable and place looked like it had recently been renovated. Location is not the greatest, but luckily the facility is pretty secure and only has one entrance by the highway. We also saw police going by a couple times. The room was clean and comfortable. It was obviously renovated, and again not the greatest, but remember what you are paying. Nice hotels in the same relative area will run you close to $200. Yes it is right by the highway, and you can hear cars but that did not bother me or my 1 year old daughter. So overall if you are looking for a cheap place in this area that isn't a total dump. this place fits the bill. If you want awesome accommodations, a pool, great wifi, and so on, book a nicer hotel and pay twice the rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r213336747-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>213336747</t>
+  </si>
+  <si>
+    <t>07/02/2014</t>
+  </si>
+  <si>
+    <t>Price Good - Stay Bad</t>
+  </si>
+  <si>
+    <t>Internet connection was never consistent, constantly had to reconnect and that did not always work.The refrig seemed to be new, but it was not working very well, I had an ice chest so I had to fill that every day to be sure my food would not spoil.When I pulled the refrig out to check the plug I found a used condom back there, they did clean that up the next day, but what's up with that?I asked them about the internet and all they said is it worked for them in the office. They said they'd look into the refrig problem, but it never worked well enough for me to trust it with my food. Oh yeah, the coffee maker. I had an excellent coffee maker, it was a 5 cup model and seemed to be brand new, it worked great. Well it should have been new, the box was sealed when I bought it at Walmart the night I arrived. My point is they had a microwave, refrig, even a jacuzzi type tube, but no coffee maker, again what's up with that?I could not have found a cheaper place to stay, by that I mean in terms of both price and quality!MoreShow less</t>
+  </si>
+  <si>
+    <t>Internet connection was never consistent, constantly had to reconnect and that did not always work.The refrig seemed to be new, but it was not working very well, I had an ice chest so I had to fill that every day to be sure my food would not spoil.When I pulled the refrig out to check the plug I found a used condom back there, they did clean that up the next day, but what's up with that?I asked them about the internet and all they said is it worked for them in the office. They said they'd look into the refrig problem, but it never worked well enough for me to trust it with my food. Oh yeah, the coffee maker. I had an excellent coffee maker, it was a 5 cup model and seemed to be brand new, it worked great. Well it should have been new, the box was sealed when I bought it at Walmart the night I arrived. My point is they had a microwave, refrig, even a jacuzzi type tube, but no coffee maker, again what's up with that?I could not have found a cheaper place to stay, by that I mean in terms of both price and quality!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r212168200-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -571,9 +856,6 @@
     <t>I stayed at this motel for the convenience of location.  The staff were helpful and very nice.  The wi-fi was awful. I spent more time disconnecting and reconnecting than on the internet.  Soda machine was out of soda's and the ice machine was out of ice.  A local cop goes into the office every aftnoon and takes a crap in the restroom.  Less than average on the interior rooms.  Run down with age.  Had to hold handle down on toilet until it was complete.  Sink had no pressure and barely ran out and sprayed everywhere.  5 miles or so away, same motel for $43.99.  I paid 70 something.  King size bed with barely any walking room.  No tissues, no ice bag, no drawers. no coffee maker.   I stayed at a HOTEL at the airport in Dallas, TX and had a huge room, large bathroom, extra living area, small kitchen area, with 2 adults and 3 kids for $65 with free shuttle to airport.  This MOTEL is overpriced for what you don't get much less what you do.  And no pool.  I will stay further elsewhere and pay less next round.MoreShow less</t>
   </si>
   <si>
-    <t>June 2014</t>
-  </si>
-  <si>
     <t>I stayed at this motel for the convenience of location.  The staff were helpful and very nice.  The wi-fi was awful. I spent more time disconnecting and reconnecting than on the internet.  Soda machine was out of soda's and the ice machine was out of ice.  A local cop goes into the office every aftnoon and takes a crap in the restroom.  Less than average on the interior rooms.  Run down with age.  Had to hold handle down on toilet until it was complete.  Sink had no pressure and barely ran out and sprayed everywhere.  5 miles or so away, same motel for $43.99.  I paid 70 something.  King size bed with barely any walking room.  No tissues, no ice bag, no drawers. no coffee maker.   I stayed at a HOTEL at the airport in Dallas, TX and had a huge room, large bathroom, extra living area, small kitchen area, with 2 adults and 3 kids for $65 with free shuttle to airport.  This MOTEL is overpriced for what you don't get much less what you do.  And no pool.  I will stay further elsewhere and pay less next round.More</t>
   </si>
   <si>
@@ -595,6 +877,42 @@
     <t>Great hotel if you keep your expectations in check. Check in and check out were a breeze; guy in the office is very friendly and efficient. The room itself, (117); not bad at all for the $92.50 (fees and taxes included). I actually liked the lighting in the room; I don't like to have to turn on lamps throughout a room for dim light. Everything in the room was acceptable and clean. The bed was firm; which I like. The drawbacks of this property are as follows; 1) Kind of hard to find. 2) Breakfast is a joke. 3) Not enough pillows on bed. Overall, I found it to be a great value in comparison to the typical $200+ per night rooms in the Medical Center area. Would recommend and would stay again upon return.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r202539697-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>202539697</t>
+  </si>
+  <si>
+    <t>04/24/2014</t>
+  </si>
+  <si>
+    <t>Comfortable, quiet room, but too much light</t>
+  </si>
+  <si>
+    <t>The positive: Friendly people, comfortable bed, quiet hotel, easy in &amp; out. The negative: The curtains didn't do a very good job of keeping light from the parking lot out, so the room was rather bright when I was trying to sleep. The internet kept cutting out, making it difficult to do my work. Also, the parking lot is rather tight, so if you have a large vehicle you might have a challenge.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r195312047-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>195312047</t>
+  </si>
+  <si>
+    <t>02/25/2014</t>
+  </si>
+  <si>
+    <t>Really nice little hotel</t>
+  </si>
+  <si>
+    <t>This hotel is not big and fancy, but it was perfect for what we wanted.  The room was clean and cozy.  It had a microwave and refrigerator.  It was located within minutes of Hermann Park which was our ultimate destination.  And the price was very reasonable.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r163512742-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -649,6 +967,45 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r157427064-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157427064</t>
+  </si>
+  <si>
+    <t>04/11/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel for the money</t>
+  </si>
+  <si>
+    <t>We traveled to Houston for an appointment at MD Anderson in February and the hotel staff was excellent. The hotel was clean and the front desk staff was very nice. I had originally booked 2 nights due to not knowing how long the appointment would take. After we met with the doctor and he gave us the clearance to leave, I called the hotel and I was able to cancel the second night staff. We had to come back to MD Anderson in March and we stayed here. The rooms were clean and the staff was nice and pleasant to work with as always. We will be traveling back to MD Anderson in June and we have decided this is where we will be staying going forward because the room rate was very reasonable and the rooms we received were clean. Our rooms have been in the front so I have felt safe especially since they have security cameras. There isn't much to their continental breakfast. If you want a good breakfast, you may want to stop by McDonalds or somewhere. They are easy to find from the interstate. I would recommend this hotel to someone.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>We traveled to Houston for an appointment at MD Anderson in February and the hotel staff was excellent. The hotel was clean and the front desk staff was very nice. I had originally booked 2 nights due to not knowing how long the appointment would take. After we met with the doctor and he gave us the clearance to leave, I called the hotel and I was able to cancel the second night staff. We had to come back to MD Anderson in March and we stayed here. The rooms were clean and the staff was nice and pleasant to work with as always. We will be traveling back to MD Anderson in June and we have decided this is where we will be staying going forward because the room rate was very reasonable and the rooms we received were clean. Our rooms have been in the front so I have felt safe especially since they have security cameras. There isn't much to their continental breakfast. If you want a good breakfast, you may want to stop by McDonalds or somewhere. They are easy to find from the interstate. I would recommend this hotel to someone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r155374900-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155374900</t>
+  </si>
+  <si>
+    <t>03/22/2013</t>
+  </si>
+  <si>
+    <t>Reasonably priced and convenient</t>
+  </si>
+  <si>
+    <t>I recently spent three nights at the hotel. I had little interaction with the staff, but checking in and out of my room was quick and easy. I liked the location. The hotel has quick access to the South Freeway. I appreciated the room's amenities: mini fridge, microwave, and flat screen television. There was no iron, but I remembered from other guest reviews to bring my own. I did not like the cleanliness of the room. There were stains in the carpet and the microwave needed to be cleaned. However, I felt that this was the only setback about the hotel. Overall, I liked my stay.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r153744639-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -664,9 +1021,6 @@
     <t>Had to stay a couple of days for a visit to the M D Anderson Medical Center.  Easy to find even though I've never been to Houston. Exterior a little the worse for wear (outside trash cans need attention, cigarette butts on sidewalk, etc.) but OK. Included mini-fridge and microwave came in very handy. Bath and shower enclosed with sink counter open to the room. Ice, glasses and all necessary's in evidence. Bed was not up to my standards for comfort and my back hurt. Television was enclosed in an entertainment center (includes DVD player if you want to bring your own movies) that was right at the foot of the bed for easy viewing and there was a nice selection of channels. Maybe I should have asked at the desk but there was no remote in my room and I had to manually change channels (took me right back to the '50's). It was a little noisy being right off of South Freeway (I live in a rural area) but not terrible; in fact the second night I didn't even notice it and slept well. Everyone was friendly. Even though I had maps and a Tom Tom for backup another guest gave me a more direct route to follow and it was amazingly easy to get to the treatment center. When I left, the desk man gave me good directions to follow to exit Houston rapidly. No complaints about...Had to stay a couple of days for a visit to the M D Anderson Medical Center.  Easy to find even though I've never been to Houston. Exterior a little the worse for wear (outside trash cans need attention, cigarette butts on sidewalk, etc.) but OK. Included mini-fridge and microwave came in very handy. Bath and shower enclosed with sink counter open to the room. Ice, glasses and all necessary's in evidence. Bed was not up to my standards for comfort and my back hurt. Television was enclosed in an entertainment center (includes DVD player if you want to bring your own movies) that was right at the foot of the bed for easy viewing and there was a nice selection of channels. Maybe I should have asked at the desk but there was no remote in my room and I had to manually change channels (took me right back to the '50's). It was a little noisy being right off of South Freeway (I live in a rural area) but not terrible; in fact the second night I didn't even notice it and slept well. Everyone was friendly. Even though I had maps and a Tom Tom for backup another guest gave me a more direct route to follow and it was amazingly easy to get to the treatment center. When I left, the desk man gave me good directions to follow to exit Houston rapidly. No complaints about cleanliness or maid service; all up to snuff. I did run the A/C. It worked well and I was surprised at how quietly it ran. I did not try the free breakfast on my stay so I can't comment on that but yes, the dining area is small.  Manager was a nice guy and very accomodating.. I'll have surgery soon and need a weeks stay in the area. I was quoted less than $45/night (before taxes) for a 7 day stay. Very affordable, didn't see any bedbugs (and after reading the other review on this site, I looked) and pretty reasonable accomodations. Neighborhood is a little spotty so I took a 357 snubby with me for the evenings (this is Texas after all). I wouldn't worry about strolling the area in the daytime. Also very easy to get to and from the medical area so don't let the lack of a shuttle deter you. I can get lost everywhere and even I didn't have problems. You could do much worse and the value can't be beat.MoreShow less</t>
   </si>
   <si>
-    <t>February 2013</t>
-  </si>
-  <si>
     <t>Had to stay a couple of days for a visit to the M D Anderson Medical Center.  Easy to find even though I've never been to Houston. Exterior a little the worse for wear (outside trash cans need attention, cigarette butts on sidewalk, etc.) but OK. Included mini-fridge and microwave came in very handy. Bath and shower enclosed with sink counter open to the room. Ice, glasses and all necessary's in evidence. Bed was not up to my standards for comfort and my back hurt. Television was enclosed in an entertainment center (includes DVD player if you want to bring your own movies) that was right at the foot of the bed for easy viewing and there was a nice selection of channels. Maybe I should have asked at the desk but there was no remote in my room and I had to manually change channels (took me right back to the '50's). It was a little noisy being right off of South Freeway (I live in a rural area) but not terrible; in fact the second night I didn't even notice it and slept well. Everyone was friendly. Even though I had maps and a Tom Tom for backup another guest gave me a more direct route to follow and it was amazingly easy to get to the treatment center. When I left, the desk man gave me good directions to follow to exit Houston rapidly. No complaints about...Had to stay a couple of days for a visit to the M D Anderson Medical Center.  Easy to find even though I've never been to Houston. Exterior a little the worse for wear (outside trash cans need attention, cigarette butts on sidewalk, etc.) but OK. Included mini-fridge and microwave came in very handy. Bath and shower enclosed with sink counter open to the room. Ice, glasses and all necessary's in evidence. Bed was not up to my standards for comfort and my back hurt. Television was enclosed in an entertainment center (includes DVD player if you want to bring your own movies) that was right at the foot of the bed for easy viewing and there was a nice selection of channels. Maybe I should have asked at the desk but there was no remote in my room and I had to manually change channels (took me right back to the '50's). It was a little noisy being right off of South Freeway (I live in a rural area) but not terrible; in fact the second night I didn't even notice it and slept well. Everyone was friendly. Even though I had maps and a Tom Tom for backup another guest gave me a more direct route to follow and it was amazingly easy to get to the treatment center. When I left, the desk man gave me good directions to follow to exit Houston rapidly. No complaints about cleanliness or maid service; all up to snuff. I did run the A/C. It worked well and I was surprised at how quietly it ran. I did not try the free breakfast on my stay so I can't comment on that but yes, the dining area is small.  Manager was a nice guy and very accomodating.. I'll have surgery soon and need a weeks stay in the area. I was quoted less than $45/night (before taxes) for a 7 day stay. Very affordable, didn't see any bedbugs (and after reading the other review on this site, I looked) and pretty reasonable accomodations. Neighborhood is a little spotty so I took a 357 snubby with me for the evenings (this is Texas after all). I wouldn't worry about strolling the area in the daytime. Also very easy to get to and from the medical area so don't let the lack of a shuttle deter you. I can get lost everywhere and even I didn't have problems. You could do much worse and the value can't be beat.More</t>
   </si>
   <si>
@@ -709,6 +1063,45 @@
     <t>Staying here for several days while my mother see's specialists at MD Anderson. While it is only a short drive away this hotel leaves a bit to be desired. First let me start by saying that I have stayed at worse places. The motel is supposedly "newer" but is in a slightly rougher part of town than I would like to be in. Do I feel safe in my room? - Yes. Would I walk down the street in this area? - NO There doesn't seem to be any nice places to eat nearby but there are a couple pizza and sandwich shops that will deliver here. The rooms are average at best. Fairly clean except the carpet (but most motels have gross carpet). The beds are a mattress on a wooden platform - my back hurts in the morning .... Enough said. There is a small fridge and microwave which is nice. The TV is good and there are decent low level cable channels. The air is cold and the heat works (not that you would need it). The "continental" breakfast is NOTHING more than muffins, stale Cheerios, Raisin Bran and a pot of coffee - the gas station has a better selection. The guy at the front desk is friendly enough but is behind plexiglass (enough said?) The free WiFi is VERY spotty. All in all if I had to do it over I most likely wouldn't stay...Staying here for several days while my mother see's specialists at MD Anderson. While it is only a short drive away this hotel leaves a bit to be desired. First let me start by saying that I have stayed at worse places. The motel is supposedly "newer" but is in a slightly rougher part of town than I would like to be in. Do I feel safe in my room? - Yes. Would I walk down the street in this area? - NO There doesn't seem to be any nice places to eat nearby but there are a couple pizza and sandwich shops that will deliver here. The rooms are average at best. Fairly clean except the carpet (but most motels have gross carpet). The beds are a mattress on a wooden platform - my back hurts in the morning .... Enough said. There is a small fridge and microwave which is nice. The TV is good and there are decent low level cable channels. The air is cold and the heat works (not that you would need it). The "continental" breakfast is NOTHING more than muffins, stale Cheerios, Raisin Bran and a pot of coffee - the gas station has a better selection. The guy at the front desk is friendly enough but is behind plexiglass (enough said?) The free WiFi is VERY spotty. All in all if I had to do it over I most likely wouldn't stay here again - but if this is the only thing in your price range it is completely survivable.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r132851671-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132851671</t>
+  </si>
+  <si>
+    <t>06/26/2012</t>
+  </si>
+  <si>
+    <t>Great Accomodations And Convenient For The Price</t>
+  </si>
+  <si>
+    <t>One never knows what they will get for $50.00 but this motel is a jewel.  Yes, they could provide tissues or?The front desk was helpful and a pleasure to communicate with.Back to Houston i will defintiely stay again.Close to downtown and the sports stadium.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r130273804-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130273804</t>
+  </si>
+  <si>
+    <t>05/20/2012</t>
+  </si>
+  <si>
+    <t>Clean, except for the carpet</t>
+  </si>
+  <si>
+    <t>The bathroom and bedding were clean, but the carpet gave both my wife and I the "itchies". The room was otherwise very nice, it's more of a mid level motel, than a Motel 6 competitor. Microwave and fridge, a large flatscreen TV with a good selection of channels, including a porno channel that we didn't order, but was active.Breakfast was individually wrapped muffins and coffee.Located in a transitioning neighborhood. There is a mix of large, well kept older houses and what looks to be low rent apartments. The property has rooms on three sides and a wall on the other, the only way in and out is past reception.Reasonably easy to get to from either direction of Hwy 288, South Freeway. Exit the property very slowly and pick your angle carefully. The curb gutter is deep and steep, and the road surface is gouged by people who left too quickly like I've never seen before.This was the cheapest room we could find in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>The bathroom and bedding were clean, but the carpet gave both my wife and I the "itchies". The room was otherwise very nice, it's more of a mid level motel, than a Motel 6 competitor. Microwave and fridge, a large flatscreen TV with a good selection of channels, including a porno channel that we didn't order, but was active.Breakfast was individually wrapped muffins and coffee.Located in a transitioning neighborhood. There is a mix of large, well kept older houses and what looks to be low rent apartments. The property has rooms on three sides and a wall on the other, the only way in and out is past reception.Reasonably easy to get to from either direction of Hwy 288, South Freeway. Exit the property very slowly and pick your angle carefully. The curb gutter is deep and steep, and the road surface is gouged by people who left too quickly like I've never seen before.This was the cheapest room we could find in the area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r129216487-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -737,9 +1130,6 @@
   </si>
   <si>
     <t>If you need a clean and affordable place to stay near the Houston Medical Center or the Museum district, consider this place. My room was small, but had all I needed. The only downside was that it was equipped with the kind of AC that cycles on and off to maintain the temperature. With my sleeping style I really prefer the kind that will maintain coolness AND allow the fan to run full time for the white noise.</t>
-  </si>
-  <si>
-    <t>April 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1636050-r121776784-Americas_Best_Value_Inn_Medical_Center_North-Houston_Texas.html</t>
@@ -1292,7 +1682,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1349,7 +1739,7 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N3" t="s">
         <v>59</v>
@@ -1358,16 +1748,16 @@
         <v>60</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
@@ -1379,7 +1769,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1395,25 +1785,25 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
-      </c>
-      <c r="L4" t="s">
-        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
@@ -1422,31 +1812,21 @@
         <v>59</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>4</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1462,50 +1842,50 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
         <v>68</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>69</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>70</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>71</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
         <v>72</v>
       </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" t="s">
-        <v>74</v>
-      </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1513,7 +1893,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -1529,44 +1909,50 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>75</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>76</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>77</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>78</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
         <v>79</v>
       </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>80</v>
-      </c>
-      <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="s"/>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
       <c r="Q6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1574,7 +1960,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -1590,58 +1976,48 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
         <v>81</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>82</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>83</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>84</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
         <v>85</v>
       </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>80</v>
-      </c>
       <c r="O7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>4</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -1657,7 +2033,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1666,35 +2042,41 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O8" t="s">
-        <v>74</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1702,7 +2084,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -1739,20 +2121,30 @@
         <v>96</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
         <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>67</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
@@ -1775,7 +2167,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1784,35 +2176,35 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O10" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1820,7 +2212,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
@@ -1836,44 +2228,50 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
         <v>104</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
-        <v>105</v>
-      </c>
-      <c r="J11" t="s">
-        <v>106</v>
-      </c>
-      <c r="K11" t="s">
-        <v>107</v>
-      </c>
-      <c r="L11" t="s">
-        <v>108</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>109</v>
-      </c>
       <c r="O11" t="s">
-        <v>74</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
       <c r="R11" t="n">
         <v>4</v>
       </c>
-      <c r="S11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1881,7 +2279,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
@@ -1918,25 +2316,25 @@
         <v>114</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1960,44 +2358,58 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
         <v>116</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>117</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>118</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>119</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>120</v>
       </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="O13" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
@@ -2034,20 +2446,24 @@
         <v>125</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
         <v>126</v>
       </c>
       <c r="O14" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
@@ -2091,13 +2507,13 @@
         <v>131</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
         <v>132</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2148,25 +2564,23 @@
         <v>137</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
         <v>138</v>
       </c>
       <c r="O16" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="n">
         <v>3</v>
       </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2211,25 +2625,25 @@
         <v>143</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
         <v>144</v>
       </c>
       <c r="O17" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="s"/>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2274,26 +2688,20 @@
         <v>150</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
         <v>144</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>3</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>1</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
@@ -2337,25 +2745,23 @@
         <v>155</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="O19" t="s">
-        <v>60</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2379,7 +2785,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2388,34 +2794,34 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K20" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="L20" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
-      </c>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>162</v>
+      </c>
+      <c r="O20" t="s">
+        <v>72</v>
+      </c>
       <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q20" t="s"/>
       <c r="R20" t="n">
         <v>5</v>
       </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
         <v>5</v>
@@ -2426,7 +2832,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21">
@@ -2442,7 +2848,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2451,43 +2857,35 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J21" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K21" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L21" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
-      </c>
-      <c r="N21" t="s">
-        <v>165</v>
-      </c>
-      <c r="O21" t="s">
-        <v>60</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
+      <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>3</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22">
@@ -2503,7 +2901,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2512,37 +2910,37 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J22" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L22" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O22" t="s">
-        <v>67</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="n">
-        <v>3</v>
-      </c>
-      <c r="S22" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2550,7 +2948,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23">
@@ -2566,7 +2964,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2575,37 +2973,37 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K23" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L23" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>180</v>
+      </c>
+      <c r="O23" t="s">
+        <v>98</v>
+      </c>
+      <c r="P23" t="n">
         <v>2</v>
-      </c>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
-      <c r="P23" t="n">
-        <v>3</v>
       </c>
       <c r="Q23" t="n">
         <v>2</v>
       </c>
-      <c r="R23" t="n">
-        <v>1</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2</v>
-      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2613,7 +3011,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24">
@@ -2629,7 +3027,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2638,49 +3036,39 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J24" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K24" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L24" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="O24" t="s">
-        <v>74</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" t="n">
-        <v>4</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>4</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25">
@@ -2696,7 +3084,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2705,22 +3093,26 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L25" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
+      <c r="N25" t="s">
+        <v>192</v>
+      </c>
+      <c r="O25" t="s">
+        <v>72</v>
+      </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
@@ -2733,7 +3125,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26">
@@ -2749,7 +3141,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -2758,34 +3150,34 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J26" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K26" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L26" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="s"/>
-      <c r="O26" t="s"/>
-      <c r="P26" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>198</v>
+      </c>
+      <c r="O26" t="s">
+        <v>98</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R26" t="n">
-        <v>1</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
         <v>5</v>
@@ -2796,7 +3188,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27">
@@ -2812,7 +3204,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -2821,41 +3213,35 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J27" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K27" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L27" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="n">
-        <v>3</v>
-      </c>
-      <c r="R27" t="n">
-        <v>3</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2863,7 +3249,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28">
@@ -2879,7 +3265,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -2888,49 +3274,39 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
+        <v>206</v>
+      </c>
+      <c r="J28" t="s">
+        <v>207</v>
+      </c>
+      <c r="K28" t="s">
+        <v>208</v>
+      </c>
+      <c r="L28" t="s">
+        <v>209</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
         <v>204</v>
       </c>
-      <c r="J28" t="s">
-        <v>205</v>
-      </c>
-      <c r="K28" t="s">
-        <v>206</v>
-      </c>
-      <c r="L28" t="s">
-        <v>207</v>
-      </c>
-      <c r="M28" t="n">
-        <v>3</v>
-      </c>
-      <c r="N28" t="s">
-        <v>208</v>
-      </c>
       <c r="O28" t="s">
-        <v>53</v>
-      </c>
-      <c r="P28" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
-      <c r="R28" t="n">
-        <v>3</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>4</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29">
@@ -2946,7 +3322,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -2955,41 +3331,37 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J29" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L29" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O29" t="s">
-        <v>60</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>4</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
       <c r="R29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2997,7 +3369,7 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30">
@@ -3013,7 +3385,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3022,41 +3394,37 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K30" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L30" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="n">
         <v>3</v>
       </c>
-      <c r="R30" t="n">
-        <v>4</v>
-      </c>
+      <c r="R30" t="s"/>
       <c r="S30" t="n">
         <v>3</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3064,7 +3432,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31">
@@ -3080,46 +3448,46 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>222</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
         <v>223</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>224</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>225</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>226</v>
       </c>
-      <c r="L31" t="s">
-        <v>227</v>
-      </c>
       <c r="M31" t="n">
-        <v>2</v>
-      </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>215</v>
+      </c>
+      <c r="O31" t="s">
+        <v>72</v>
+      </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2</v>
-      </c>
-      <c r="S31" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3127,7 +3495,7 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32">
@@ -3143,46 +3511,46 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>227</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>228</v>
+      </c>
+      <c r="J32" t="s">
         <v>229</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="K32" t="s">
         <v>230</v>
       </c>
-      <c r="J32" t="s">
+      <c r="L32" t="s">
         <v>231</v>
       </c>
-      <c r="K32" t="s">
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
         <v>232</v>
       </c>
-      <c r="L32" t="s">
-        <v>233</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
-      <c r="P32" t="n">
-        <v>1</v>
-      </c>
+      <c r="O32" t="s">
+        <v>79</v>
+      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="n">
         <v>3</v>
       </c>
       <c r="R32" t="n">
-        <v>2</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3190,7 +3558,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33">
@@ -3206,35 +3574,31 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>233</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
         <v>234</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>235</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>236</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>237</v>
       </c>
-      <c r="L33" t="s">
-        <v>238</v>
-      </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
-      <c r="N33" t="s">
-        <v>239</v>
-      </c>
-      <c r="O33" t="s">
-        <v>74</v>
-      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
       <c r="P33" t="n">
         <v>5</v>
       </c>
@@ -3245,11 +3609,11 @@
         <v>4</v>
       </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3257,7 +3621,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34">
@@ -3273,43 +3637,39 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>238</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>239</v>
+      </c>
+      <c r="J34" t="s">
         <v>240</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="K34" t="s">
+        <v>36</v>
+      </c>
+      <c r="L34" t="s">
         <v>241</v>
       </c>
-      <c r="J34" t="s">
-        <v>242</v>
-      </c>
-      <c r="K34" t="s">
-        <v>243</v>
-      </c>
-      <c r="L34" t="s">
-        <v>244</v>
-      </c>
       <c r="M34" t="n">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s">
-        <v>245</v>
-      </c>
-      <c r="O34" t="s">
-        <v>60</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
       <c r="P34" t="n">
         <v>5</v>
       </c>
       <c r="Q34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -3324,7 +3684,1435 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>242</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>243</v>
+      </c>
+      <c r="J35" t="s">
         <v>244</v>
+      </c>
+      <c r="K35" t="s">
+        <v>245</v>
+      </c>
+      <c r="L35" t="s">
+        <v>246</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>247</v>
+      </c>
+      <c r="O35" t="s">
+        <v>72</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>248</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>249</v>
+      </c>
+      <c r="J36" t="s">
+        <v>250</v>
+      </c>
+      <c r="K36" t="s">
+        <v>251</v>
+      </c>
+      <c r="L36" t="s">
+        <v>252</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>253</v>
+      </c>
+      <c r="O36" t="s">
+        <v>79</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>255</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>256</v>
+      </c>
+      <c r="J37" t="s">
+        <v>257</v>
+      </c>
+      <c r="K37" t="s">
+        <v>258</v>
+      </c>
+      <c r="L37" t="s">
+        <v>259</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>260</v>
+      </c>
+      <c r="O37" t="s">
+        <v>79</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>262</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>263</v>
+      </c>
+      <c r="J38" t="s">
+        <v>264</v>
+      </c>
+      <c r="K38" t="s">
+        <v>265</v>
+      </c>
+      <c r="L38" t="s">
+        <v>266</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>260</v>
+      </c>
+      <c r="O38" t="s">
+        <v>98</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>268</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>269</v>
+      </c>
+      <c r="J39" t="s">
+        <v>270</v>
+      </c>
+      <c r="K39" t="s">
+        <v>271</v>
+      </c>
+      <c r="L39" t="s">
+        <v>272</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>273</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>274</v>
+      </c>
+      <c r="J40" t="s">
+        <v>275</v>
+      </c>
+      <c r="K40" t="s">
+        <v>276</v>
+      </c>
+      <c r="L40" t="s">
+        <v>277</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>260</v>
+      </c>
+      <c r="O40" t="s">
+        <v>98</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>279</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>280</v>
+      </c>
+      <c r="J41" t="s">
+        <v>281</v>
+      </c>
+      <c r="K41" t="s">
+        <v>282</v>
+      </c>
+      <c r="L41" t="s">
+        <v>283</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>285</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>286</v>
+      </c>
+      <c r="J42" t="s">
+        <v>287</v>
+      </c>
+      <c r="K42" t="s">
+        <v>288</v>
+      </c>
+      <c r="L42" t="s">
+        <v>289</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>290</v>
+      </c>
+      <c r="O42" t="s">
+        <v>98</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>291</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>292</v>
+      </c>
+      <c r="J43" t="s">
+        <v>293</v>
+      </c>
+      <c r="K43" t="s">
+        <v>294</v>
+      </c>
+      <c r="L43" t="s">
+        <v>295</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>296</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>297</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>298</v>
+      </c>
+      <c r="J44" t="s">
+        <v>299</v>
+      </c>
+      <c r="K44" t="s">
+        <v>300</v>
+      </c>
+      <c r="L44" t="s">
+        <v>301</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>303</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>304</v>
+      </c>
+      <c r="J45" t="s">
+        <v>305</v>
+      </c>
+      <c r="K45" t="s">
+        <v>306</v>
+      </c>
+      <c r="L45" t="s">
+        <v>307</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>308</v>
+      </c>
+      <c r="O45" t="s">
+        <v>72</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>309</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>310</v>
+      </c>
+      <c r="J46" t="s">
+        <v>311</v>
+      </c>
+      <c r="K46" t="s">
+        <v>312</v>
+      </c>
+      <c r="L46" t="s">
+        <v>313</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>314</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>315</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>316</v>
+      </c>
+      <c r="J47" t="s">
+        <v>317</v>
+      </c>
+      <c r="K47" t="s">
+        <v>318</v>
+      </c>
+      <c r="L47" t="s">
+        <v>319</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>320</v>
+      </c>
+      <c r="O47" t="s">
+        <v>98</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>322</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>323</v>
+      </c>
+      <c r="J48" t="s">
+        <v>324</v>
+      </c>
+      <c r="K48" t="s">
+        <v>325</v>
+      </c>
+      <c r="L48" t="s">
+        <v>326</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>327</v>
+      </c>
+      <c r="O48" t="s">
+        <v>72</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>328</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>329</v>
+      </c>
+      <c r="J49" t="s">
+        <v>330</v>
+      </c>
+      <c r="K49" t="s">
+        <v>331</v>
+      </c>
+      <c r="L49" t="s">
+        <v>332</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>320</v>
+      </c>
+      <c r="O49" t="s">
+        <v>72</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>334</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>335</v>
+      </c>
+      <c r="J50" t="s">
+        <v>336</v>
+      </c>
+      <c r="K50" t="s">
+        <v>337</v>
+      </c>
+      <c r="L50" t="s">
+        <v>338</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>339</v>
+      </c>
+      <c r="O50" t="s">
+        <v>72</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>341</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>342</v>
+      </c>
+      <c r="J51" t="s">
+        <v>343</v>
+      </c>
+      <c r="K51" t="s">
+        <v>344</v>
+      </c>
+      <c r="L51" t="s">
+        <v>345</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>347</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>348</v>
+      </c>
+      <c r="J52" t="s">
+        <v>349</v>
+      </c>
+      <c r="K52" t="s">
+        <v>350</v>
+      </c>
+      <c r="L52" t="s">
+        <v>351</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>352</v>
+      </c>
+      <c r="O52" t="s">
+        <v>98</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>353</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>354</v>
+      </c>
+      <c r="J53" t="s">
+        <v>355</v>
+      </c>
+      <c r="K53" t="s">
+        <v>356</v>
+      </c>
+      <c r="L53" t="s">
+        <v>357</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>358</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>360</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>361</v>
+      </c>
+      <c r="J54" t="s">
+        <v>362</v>
+      </c>
+      <c r="K54" t="s">
+        <v>363</v>
+      </c>
+      <c r="L54" t="s">
+        <v>364</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>365</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>366</v>
+      </c>
+      <c r="J55" t="s">
+        <v>367</v>
+      </c>
+      <c r="K55" t="s">
+        <v>368</v>
+      </c>
+      <c r="L55" t="s">
+        <v>369</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>358</v>
+      </c>
+      <c r="O55" t="s">
+        <v>98</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>62025</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>370</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>371</v>
+      </c>
+      <c r="J56" t="s">
+        <v>372</v>
+      </c>
+      <c r="K56" t="s">
+        <v>373</v>
+      </c>
+      <c r="L56" t="s">
+        <v>374</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>375</v>
+      </c>
+      <c r="O56" t="s">
+        <v>72</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>
